--- a/biology/Botanique/Liste_des_espèces_du_genre_Acacia/Liste_des_espèces_du_genre_Acacia.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Acacia/Liste_des_espèces_du_genre_Acacia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Acacia</t>
+          <t>Liste_des_espèces_du_genre_Acacia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La liste des espèces du genre Acacia  présentée ci-après est celle du genre Acacia sensu stricto. En effet, plusieurs analyses cladistiques ont montré que le genre Acacia sensu lato n'est pas monophylétique. 
-Ce genre a été provisoirement scindé en 5 genres : Acacia, Vachellia, Senegalia, Acaciella et Mariosousa. L'espèce-type proposée pour le genre Acacia est Acacia penninervis[1]
-La question de savoir lequel de ces genres ségrégés devait conserver le nom d'« Acacia » a été controversée. Le genre était précédemment caractérisé par l'espèce africaine Acacia scorpioides (L.) WFWright, synonyme d’Acacia nilotica (L.) Delile. En suivant la typification originale, le nom « Acacia » devrait désigner le groupe d'espèces actuellement reconnu comme étant le genre Vachellia. Orchard et Maslin[2] ont proposé une retypification du genre Acacia par  l'espèce Acacia penninervis Sieber ex DC., espèce australienne appartenant au clade le plus important du genre Acacia sensu lato, groupe principalement australien reconnu précédemment  comme le sous-genre Acacia  subgen. Phyllodinae, avec l’argument que cela entraînait le moins de changements nomenclaturaux.  Bien que cette proposition ait suscité un fort désaccord chez certains auteurs[3], elle a été acceptée le 16 juillet 2005 par le XVIIe Congrès international de botanique à Vienne (Autriche)[4]. En conséquence, le nom « Acacia »  est conservé pour 948 espèces australiennes, 7 des îles du Pacifique, 1 ou 2 de Madagascar et 10 d'Asie tropicale. Les espèces non-australiennes sont réparties dans les genres Acaciella, Mariosousa, Senegalia et Vachellia. Cette décision a été confirmée lors du Congrès de 2011[5].
+Ce genre a été provisoirement scindé en 5 genres : Acacia, Vachellia, Senegalia, Acaciella et Mariosousa. L'espèce-type proposée pour le genre Acacia est Acacia penninervis
+La question de savoir lequel de ces genres ségrégés devait conserver le nom d'« Acacia » a été controversée. Le genre était précédemment caractérisé par l'espèce africaine Acacia scorpioides (L.) WFWright, synonyme d’Acacia nilotica (L.) Delile. En suivant la typification originale, le nom « Acacia » devrait désigner le groupe d'espèces actuellement reconnu comme étant le genre Vachellia. Orchard et Maslin ont proposé une retypification du genre Acacia par  l'espèce Acacia penninervis Sieber ex DC., espèce australienne appartenant au clade le plus important du genre Acacia sensu lato, groupe principalement australien reconnu précédemment  comme le sous-genre Acacia  subgen. Phyllodinae, avec l’argument que cela entraînait le moins de changements nomenclaturaux.  Bien que cette proposition ait suscité un fort désaccord chez certains auteurs, elle a été acceptée le 16 juillet 2005 par le XVIIe Congrès international de botanique à Vienne (Autriche). En conséquence, le nom « Acacia »  est conservé pour 948 espèces australiennes, 7 des îles du Pacifique, 1 ou 2 de Madagascar et 10 d'Asie tropicale. Les espèces non-australiennes sont réparties dans les genres Acaciella, Mariosousa, Senegalia et Vachellia. Cette décision a été confirmée lors du Congrès de 2011.
 Dans sa nouvelle circonscription, le genre Acacia (désormais presque limité aux espèces australiennes) est subdivisé en sept sous-genres : Alatae, Botrycephalae, Juliflorae, Lycopodiifoliae, Plurinerves, Phyllodinae et Pulchellae. Les autres espèces, distribuées dans l'Océan Indien, l'Asie tropicale et l'Amérique tropicale sont désormais classées dans les genres :  
 Vachellia (ex-sous-genre Acacia) : 163 espèces (pantropicales)
 Senegalia (ex-sous-genre Aculeiferum) : 203 espèces (pantropicales)
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Acacia</t>
+          <t>Liste_des_espèces_du_genre_Acacia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,10 +532,48 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La liste ci-dessous est celle des espèces du genre Acacia sensu stricto[6]. Pour les espèces transférées dans d'autres genres, voir  Acaciella, Mariosousa, Senegalia et Vachellia.
-Sous-genre Alatae
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste ci-dessous est celle des espèces du genre Acacia sensu stricto. Pour les espèces transférées dans d'autres genres, voir  Acaciella, Mariosousa, Senegalia et Vachellia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-genre Alatae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acacia aemula
 subsp. aemula
 subsp. muricata
@@ -557,7 +607,43 @@
 Acacia volubilis
 Acacia willdenowiana
 Acacia woodmaniorum
-Sous-genre Botrycephalae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-genre Botrycephalae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acacia alaticaulis
 Acacia argentina
 Acacia baileyana
@@ -614,7 +700,43 @@
 subsp. longiaxialis
 subsp. terminalis
 Acacia trachyphloia
-Sous-genre Juliflorae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-genre Juliflorae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acacia abbatiana
 Acacia abbreviata
 Acacia aciphylla
@@ -633,7 +755,7 @@
 Acacia ammobia
 Acacia ampliata
 Acacia anastema
-Acacia anastomosa Maslin, M.D.Barrett &amp; R.L.Barrett[7]
+Acacia anastomosa Maslin, M.D.Barrett &amp; R.L.Barrett
 Acacia ancistrocarpa
 Acacia aneura
 Acacia aneura var. aneura
@@ -685,7 +807,7 @@
 Acacia caesaneura
 Acacia calligera
 Acacia calyculata
-Acacia camptocarpa Maslin, M.D.Barrett &amp; R.L.Barrett[7]
+Acacia camptocarpa Maslin, M.D.Barrett &amp; R.L.Barrett
 Acacia caroleae
 Acacia cataractae
 Acacia catenulata
@@ -726,7 +848,7 @@
 Acacia cuthbertsonii
 subsp. cuthbertsonii
 subsp. linearis
-Acacia cyclocarpa Maslin, M.D.Barrett &amp; R.L.Barrett[7]
+Acacia cyclocarpa Maslin, M.D.Barrett &amp; R.L.Barrett
 Acacia cylindrica
 Acacia cyperophylla
 var. cyperophylla
@@ -742,7 +864,7 @@
 var. nudipes
 Acacia desmondii
 Acacia diallaga
-Acacia diastemata Maslin, M.D.Barrett &amp; R.L.Barrett[7]
+Acacia diastemata Maslin, M.D.Barrett &amp; R.L.Barrett
 Acacia difficilis
 Acacia dimidiata
 Acacia disparrima.
@@ -894,7 +1016,7 @@
 Acacia pellita
 Acacia peregrinalis
 Acacia petraea
-Acacia phacelia Maslin, M.D.Barrett &amp; R.L.Barrett[7]
+Acacia phacelia Maslin, M.D.Barrett &amp; R.L.Barrett
 Acacia phlebophylla
 Acacia plectocarpa
 subsp. plectocarpa
@@ -949,7 +1071,7 @@
 Acacia subtilinervis
 Acacia sulcaticaulis
 Acacia symonii
-Acacia synantha Maslin, M.D.Barrett &amp; R.L.Barrett[7]
+Acacia synantha Maslin, M.D.Barrett &amp; R.L.Barrett
 Acacia synoria
 Acacia tarculensis
 Acacia tenuinervis
@@ -991,7 +1113,43 @@
 Acacia yorkrakinensis
 subsp. acrita
 subsp. yorkrakinensis
-Sous-genre Lycopodiifoliae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-genre Lycopodiifoliae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acacia adoxa
 var. adoxa
 var. subglabra
@@ -1002,8 +1160,8 @@
 subsp. baueri
 Acacia capillaris
 Acacia chippendalei
-Acacia claviseta Maslin, M.D.Barrett &amp; R.L.Barrett[7]
-Acacia dimorpha Maslin, M.D.Barrett &amp; R.L.Barrett[7]
+Acacia claviseta Maslin, M.D.Barrett &amp; R.L.Barrett
+Acacia dimorpha Maslin, M.D.Barrett &amp; R.L.Barrett
 Acacia galioides
 Acacia hippuroides
 Acacia hypermeces
@@ -1013,12 +1171,48 @@
 Acacia orthotricha
 Acacia perryi
 Acacia porcata
-Acacia prolata Maslin, M.D.Barrett &amp; R.L.Barrett[7]
+Acacia prolata Maslin, M.D.Barrett &amp; R.L.Barrett
 Acacia repens
 Acacia smeringa
 Acacia spondylophylla
 Acacia zatrichota
-Sous-genre Phyllodineae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-genre Phyllodineae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acacia acanthaster
 Acacia acanthoclada
 subsp. acanthoclada
@@ -1510,7 +1704,43 @@
 var. brevior
 var. xerophila
 [
-Sous-genre Plurinerves
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-genre Plurinerves</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acacia abrupta
 Acacia acellerata
 Acacia adenogonia
@@ -1524,7 +1754,7 @@
 var. lissophylla
 var. perarcuata
 Acacia anfractuosa
-Acacia anserina Maslin, M.D.Barrett &amp; R.L.Barrett[7]
+Acacia anserina Maslin, M.D.Barrett &amp; R.L.Barrett
 Acacia arafurica
 Acacia argyrodendron
 Acacia argyrotricha
@@ -1702,19 +1932,19 @@
 Acacia nyssophylla
 Acacia obesa
 Acacia obtecta
-Acacia obtriangularis Maslin, M.D.Barrett &amp; R.L.Barrett[7]
+Acacia obtriangularis Maslin, M.D.Barrett &amp; R.L.Barrett
 Acacia octonervia
 Acacia ommatosperma
 Acacia ophiolithica
 Acacia oraria—ai soeli
-Acacia orthotropica Maslin, M.D.Barrett &amp; R.L.Barrett[7]
+Acacia orthotropica Maslin, M.D.Barrett &amp; R.L.Barrett
 Acacia oswaldii
 Acacia papulosa
 Acacia papyrocarpa
 Acacia patagiata
 Acacia pelophila
 Acacia pendulal
-Acacia perpusilla Maslin, M.D.Barrett &amp; R.L.Barrett[7]—King Edward River wattle
+Acacia perpusilla Maslin, M.D.Barrett &amp; R.L.Barrett—King Edward River wattle
 Acacia pharangites
 Acacia phlebocarpa
 Acacia pinguiculosa
@@ -1795,7 +2025,43 @@
 Acacia wilhelmiana
 Acacia wilsonii
 Acacia yirrkallensis
-Sous-genre Pulchellae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-genre Pulchellae</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acacia amputata
 Acacia anarthros
 Acacia browniana
@@ -1849,37 +2115,74 @@
 var. crassinervis
 var. parviflora
 var. varia
-Incertae Sedis
-Acacia simplex
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Incertae Sedis</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Acacia simplex
 Acacia test</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Acacia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Acacia</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Acacia</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acacia adoxa var. adoxa × spondylophylla
